--- a/biology/Histoire de la zoologie et de la botanique/Johan_Christian_Moberg/Johan_Christian_Moberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johan_Christian_Moberg/Johan_Christian_Moberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johan Christian Moberg est un paléontologue et géologue suédois. Né le 11 février 1854 dans la paroisse de Solberga (dans l'actuelle commune de Skurup en Scanie), il est décédé à Lund le 30 décembre 1915.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à Malmö (1873) puis à l'université de Lund, il devient professeur de géologie et de minéralogie à Lund (1884). Il fut un spécialiste des faunes et du système de classification des zones Cambrien-Silurien.
 Il siége à l'Académie royale des sciences suédoise à partir de 1911.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cephalopoderna i Sveriges kritsystem. I. Sveriges kritsystem systematiskt framstäldt, akademisk afhandling, som... framställes (1884)
 Iakttagelser Från en ... 1885 Företagen Geologisk Resa Till Irland Norra Frankrike, Holland Och Westphalen (1886)
